--- a/inst/extdata/analysis_results_flat_hierarchy.xlsx
+++ b/inst/extdata/analysis_results_flat_hierarchy.xlsx
@@ -13,11 +13,10 @@
     <sheet name="Spearman Alerts" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Pearson Alerts" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Distribution Alerts" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Spearman Difference" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Ranking" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="NA Features" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Variable Attributes" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Missing Column Names" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Ranking" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="NA Features" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Variable Attributes" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Missing Column Names" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -2637,16 +2636,72 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16085</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16018</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>288</v>
+      </c>
+      <c r="D3" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2665,90 +2720,6 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>16085</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16018</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>288</v>
-      </c>
-      <c r="D3" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
         <v>59</v>
       </c>
       <c r="B1" t="s">
@@ -6530,7 +6501,579 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>27892692</v>
+      </c>
+      <c r="J2" t="n">
+        <v>30464348</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.09219820015938</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27892692</v>
+      </c>
+      <c r="J3" t="n">
+        <v>30464348</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.09219820015938</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2604399</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3313174</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.27214532028311</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2604399</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3313174</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.27214532028311</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>24944609</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30978286</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.24188300566267</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24944609</v>
+      </c>
+      <c r="J7" t="n">
+        <v>30978286</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.24188300566267</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>77371923</v>
+      </c>
+      <c r="J8" t="n">
+        <v>79214353</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.02381264325045</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>77371923</v>
+      </c>
+      <c r="J9" t="n">
+        <v>79214353</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.02381264325045</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>31545039</v>
+      </c>
+      <c r="J10" t="n">
+        <v>31581041</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.00114128880931</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31545039</v>
+      </c>
+      <c r="J11" t="n">
+        <v>31581041</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.00114128880931</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>26444803</v>
+      </c>
+      <c r="J12" t="n">
+        <v>29246526</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.10594607189927</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>26444803</v>
+      </c>
+      <c r="J13" t="n">
+        <v>29246526</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.10594607189927</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>67099806</v>
+      </c>
+      <c r="J14" t="n">
+        <v>70376890</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.04883894895315</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>67099806</v>
+      </c>
+      <c r="J15" t="n">
+        <v>70376890</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.04883894895315</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>107523850</v>
+      </c>
+      <c r="J16" t="n">
+        <v>110830670</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.03075429311729</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>107523850</v>
+      </c>
+      <c r="J17" t="n">
+        <v>110830670</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.03075429311729</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>111916644</v>
+      </c>
+      <c r="J18" t="n">
+        <v>112376808</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.00411166725121</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>111916644</v>
+      </c>
+      <c r="J19" t="n">
+        <v>112376808</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.00411166725121</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>139455805</v>
+      </c>
+      <c r="J20" t="n">
+        <v>146252017</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.04873380494989</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>139455805</v>
+      </c>
+      <c r="J21" t="n">
+        <v>146252017</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.04873380494989</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -6549,570 +7092,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>27892692</v>
-      </c>
-      <c r="J2" t="n">
-        <v>30464348</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.09219820015938</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>27892692</v>
-      </c>
-      <c r="J3" t="n">
-        <v>30464348</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.09219820015938</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2604399</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3313174</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.27214532028311</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2604399</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3313174</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.27214532028311</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6"/>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24944609</v>
-      </c>
-      <c r="J6" t="n">
-        <v>30978286</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.24188300566267</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7"/>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>24944609</v>
-      </c>
-      <c r="J7" t="n">
-        <v>30978286</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.24188300566267</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8" t="n">
         <v>4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>77371923</v>
-      </c>
-      <c r="J8" t="n">
-        <v>79214353</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.02381264325045</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9"/>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>77371923</v>
-      </c>
-      <c r="J9" t="n">
-        <v>79214353</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.02381264325045</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10"/>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>31545039</v>
-      </c>
-      <c r="J10" t="n">
-        <v>31581041</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.00114128880931</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>31545039</v>
-      </c>
-      <c r="J11" t="n">
-        <v>31581041</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.00114128880931</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12"/>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12"/>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>26444803</v>
-      </c>
-      <c r="J12" t="n">
-        <v>29246526</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.10594607189927</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13"/>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>26444803</v>
-      </c>
-      <c r="J13" t="n">
-        <v>29246526</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.10594607189927</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>67099806</v>
-      </c>
-      <c r="J14" t="n">
-        <v>70376890</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.04883894895315</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>67099806</v>
-      </c>
-      <c r="J15" t="n">
-        <v>70376890</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.04883894895315</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>107523850</v>
-      </c>
-      <c r="J16" t="n">
-        <v>110830670</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.03075429311729</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17"/>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>107523850</v>
-      </c>
-      <c r="J17" t="n">
-        <v>110830670</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.03075429311729</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18"/>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>111916644</v>
-      </c>
-      <c r="J18" t="n">
-        <v>112376808</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.00411166725121</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19"/>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>111916644</v>
-      </c>
-      <c r="J19" t="n">
-        <v>112376808</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.00411166725121</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>139455805</v>
-      </c>
-      <c r="J20" t="n">
-        <v>146252017</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.04873380494989</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>139455805</v>
-      </c>
-      <c r="J21" t="n">
-        <v>146252017</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.04873380494989</v>
       </c>
     </row>
   </sheetData>
